--- a/mt-tracker/April 2020/DanielleLouise.Leones-TimeTrackerDocument-April.xlsx
+++ b/mt-tracker/April 2020/DanielleLouise.Leones-TimeTrackerDocument-April.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E81BFA6-E465-4E2B-8851-BFA553B9D8C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB662BE-2C28-4299-ADA9-636900984EB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Resource Name:</t>
   </si>
@@ -109,6 +109,33 @@
   </si>
   <si>
     <t>Populate the modal button</t>
+  </si>
+  <si>
+    <t>Create behavior for highlighted active tab of modal</t>
+  </si>
+  <si>
+    <t>Creating classes and interfaces for tabs of modal</t>
+  </si>
+  <si>
+    <t>Applying Thymeleaf for Data Profile</t>
+  </si>
+  <si>
+    <t>Test add row if working</t>
+  </si>
+  <si>
+    <t>Re-import csv file to postgres</t>
+  </si>
+  <si>
+    <t>Research about Event Handling JS</t>
+  </si>
+  <si>
+    <t>Apply Event Handling Method in JS for ID retrieve</t>
+  </si>
+  <si>
+    <t>Apply Ajax call for ID retrieve</t>
+  </si>
+  <si>
+    <t>Remodify code for Controller for Model And View</t>
   </si>
 </sst>
 </file>
@@ -743,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -895,11 +922,11 @@
         <v>8</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" ref="F7:G7" si="0">SUM(F8:F37)</f>
+        <f>SUM(F8:F37)</f>
         <v>8</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(G8:G37)</f>
         <v>8</v>
       </c>
       <c r="H7" s="16">
@@ -915,19 +942,19 @@
         <v>8</v>
       </c>
       <c r="K7" s="16">
-        <f t="shared" ref="K7:N7" si="1">SUM(K8:K37)</f>
+        <f>SUM(K8:K37)</f>
         <v>8</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(L8:L37)</f>
         <v>8</v>
       </c>
       <c r="M7" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M8:M37)</f>
         <v>0</v>
       </c>
       <c r="N7" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(N8:N37)</f>
         <v>0</v>
       </c>
       <c r="O7" s="16">
@@ -943,20 +970,20 @@
         <v>8</v>
       </c>
       <c r="R7" s="16">
-        <f t="shared" ref="R7:U7" si="2">SUM(R8:R37)</f>
-        <v>0</v>
+        <f>SUM(R8:R37)</f>
+        <v>8</v>
       </c>
       <c r="S7" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(S8:S37)</f>
+        <v>8</v>
       </c>
       <c r="T7" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(T8:T37)</f>
+        <v>8</v>
       </c>
       <c r="U7" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(U8:U37)</f>
+        <v>6</v>
       </c>
       <c r="V7" s="16">
         <v>0</v>
@@ -966,23 +993,23 @@
       </c>
       <c r="X7" s="16">
         <f>SUM(X8:X37)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y7" s="16">
-        <f t="shared" ref="Y7:AB7" si="3">SUM(Y8:Y37)</f>
-        <v>0</v>
+        <f>SUM(Y8:Y37)</f>
+        <v>8</v>
       </c>
       <c r="Z7" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(Z8:Z37)</f>
+        <v>8</v>
       </c>
       <c r="AA7" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(AA8:AA37)</f>
+        <v>8</v>
       </c>
       <c r="AB7" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(AB8:AB37)</f>
+        <v>8</v>
       </c>
       <c r="AC7" s="16">
         <f>SUM(AC8:AC40)</f>
@@ -997,24 +1024,24 @@
         <v>0</v>
       </c>
       <c r="AF7" s="16">
-        <f t="shared" ref="AF7:AI7" si="4">SUM(AF8:AF37)</f>
+        <f>SUM(AF8:AF37)</f>
         <v>0</v>
       </c>
       <c r="AG7" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(AG8:AG37)</f>
         <v>0</v>
       </c>
       <c r="AH7" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(AH8:AH37)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="16">
-        <f t="shared" si="4"/>
+        <f>SUM(AI8:AI37)</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="15">
-        <f t="shared" ref="AJ7:AJ53" si="5">SUM(E7:AI7)</f>
-        <v>56</v>
+        <f t="shared" ref="AJ7:AJ53" si="0">SUM(E7:AI7)</f>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:36" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1067,7 +1094,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -1117,7 +1144,7 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -1161,7 +1188,7 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1205,7 +1232,7 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +1276,7 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1293,7 +1320,7 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1318,7 +1345,9 @@
       <c r="Q14" s="13">
         <v>2</v>
       </c>
-      <c r="R14" s="13"/>
+      <c r="R14" s="13">
+        <v>5</v>
+      </c>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -1337,12 +1366,14 @@
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="15">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="13"/>
@@ -1358,8 +1389,12 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="R15" s="13">
+        <v>3</v>
+      </c>
+      <c r="S15" s="13">
+        <v>5</v>
+      </c>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
@@ -1377,12 +1412,14 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="13"/>
@@ -1399,7 +1436,9 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="S16" s="13">
+        <v>3</v>
+      </c>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
@@ -1417,12 +1456,14 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
       <c r="E17" s="13"/>
@@ -1440,8 +1481,12 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
+      <c r="T17" s="13">
+        <v>8</v>
+      </c>
+      <c r="U17" s="13">
+        <v>6</v>
+      </c>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
@@ -1457,12 +1502,14 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
+      <c r="B18" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="13"/>
@@ -1484,7 +1531,9 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="X18" s="13">
+        <v>2</v>
+      </c>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
@@ -1497,12 +1546,14 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
+      <c r="B19" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="13"/>
@@ -1524,8 +1575,12 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
+      <c r="X19" s="13">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>4</v>
+      </c>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
@@ -1537,12 +1592,14 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
       <c r="E20" s="13"/>
@@ -1565,7 +1622,9 @@
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
+      <c r="Y20" s="13">
+        <v>2</v>
+      </c>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
@@ -1577,12 +1636,14 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
+      <c r="B21" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
       <c r="E21" s="13"/>
@@ -1605,8 +1666,12 @@
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="Y21" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>8</v>
+      </c>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
@@ -1617,12 +1682,14 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
       <c r="AJ21" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
+      <c r="B22" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="13"/>
@@ -1647,8 +1714,12 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
+      <c r="AA22" s="13">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>2</v>
+      </c>
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
@@ -1657,12 +1728,14 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
+      <c r="B23" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
       <c r="E23" s="13"/>
@@ -1688,7 +1761,9 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
+      <c r="AB23" s="13">
+        <v>6</v>
+      </c>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
@@ -1697,8 +1772,8 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
@@ -1737,7 +1812,7 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1777,7 +1852,7 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1817,7 +1892,7 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1857,7 +1932,7 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1897,7 +1972,7 @@
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1937,7 +2012,7 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1977,7 +2052,7 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2017,7 +2092,7 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2057,7 +2132,7 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2097,7 +2172,7 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2137,7 +2212,7 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2177,7 +2252,7 @@
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2217,7 +2292,7 @@
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2257,7 +2332,7 @@
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2268,132 +2343,132 @@
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="16">
-        <f t="shared" ref="E38:AI38" si="6">SUM(E39:E40)</f>
+        <f t="shared" ref="E38:AI38" si="1">SUM(E39:E40)</f>
         <v>0</v>
       </c>
       <c r="F38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S38" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="T38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.3">
@@ -2416,9 +2491,13 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="Q39" s="13">
+        <v>1</v>
+      </c>
       <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
+      <c r="S39" s="13">
+        <v>1</v>
+      </c>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
@@ -2436,8 +2515,8 @@
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="15">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.3">
@@ -2476,7 +2555,7 @@
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2491,11 +2570,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="16">
-        <f t="shared" ref="F41:AI41" si="7">SUM(F42:F43)</f>
+        <f t="shared" ref="F41:AI41" si="2">SUM(F42:F43)</f>
         <v>0</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="16">
@@ -2507,23 +2586,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O41" s="16">
@@ -2535,23 +2614,23 @@
         <v>0</v>
       </c>
       <c r="Q41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V41" s="16">
@@ -2563,23 +2642,23 @@
         <v>0</v>
       </c>
       <c r="X41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC41" s="16">
@@ -2591,27 +2670,27 @@
         <v>0</v>
       </c>
       <c r="AE41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2651,7 +2730,7 @@
       <c r="AH42" s="13"/>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2691,7 +2770,7 @@
       <c r="AH43" s="13"/>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2781,7 @@
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="16">
-        <f t="shared" ref="E44" si="8">SUM(E45:E47)</f>
+        <f>SUM(E45:E47)</f>
         <v>0</v>
       </c>
       <c r="F44" s="16">
@@ -2710,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" ref="G44" si="9">SUM(G45:G47)</f>
+        <f>SUM(G45:G47)</f>
         <v>0</v>
       </c>
       <c r="H44" s="16">
@@ -2718,27 +2797,27 @@
         <v>0</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" ref="I44" si="10">SUM(I45:I47)</f>
+        <f>SUM(I45:I47)</f>
         <v>0</v>
       </c>
       <c r="J44" s="16">
-        <f t="shared" ref="J44:AI44" si="11">SUM(J45:J47)</f>
+        <f t="shared" ref="J44:AI44" si="3">SUM(J45:J47)</f>
         <v>0</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O44" s="16">
@@ -2746,27 +2825,27 @@
         <v>0</v>
       </c>
       <c r="P44" s="16">
-        <f t="shared" ref="P44" si="12">SUM(P45:P47)</f>
+        <f>SUM(P45:P47)</f>
         <v>0</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V44" s="16">
@@ -2774,27 +2853,27 @@
         <v>0</v>
       </c>
       <c r="W44" s="16">
-        <f t="shared" ref="W44" si="13">SUM(W45:W47)</f>
+        <f>SUM(W45:W47)</f>
         <v>0</v>
       </c>
       <c r="X44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC44" s="16">
@@ -2802,31 +2881,31 @@
         <v>0</v>
       </c>
       <c r="AD44" s="16">
-        <f t="shared" ref="AD44" si="14">SUM(AD45:AD47)</f>
+        <f>SUM(AD45:AD47)</f>
         <v>0</v>
       </c>
       <c r="AE44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ44" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2866,7 +2945,7 @@
       <c r="AH45" s="13"/>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2906,7 +2985,7 @@
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2946,7 +3025,7 @@
       <c r="AH47" s="13"/>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2965,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="16">
-        <f t="shared" ref="G48" si="15">SUM(G49:G51)</f>
+        <f>SUM(G49:G51)</f>
         <v>0</v>
       </c>
       <c r="H48" s="16">
@@ -2973,27 +3052,27 @@
         <v>0</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" ref="I48" si="16">SUM(I49:I51)</f>
+        <f>SUM(I49:I51)</f>
         <v>0</v>
       </c>
       <c r="J48" s="16">
-        <f t="shared" ref="J48:AI48" si="17">SUM(J49:J51)</f>
+        <f t="shared" ref="J48:AI48" si="4">SUM(J49:J51)</f>
         <v>0</v>
       </c>
       <c r="K48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O48" s="16">
@@ -3001,27 +3080,27 @@
         <v>0</v>
       </c>
       <c r="P48" s="16">
-        <f t="shared" ref="P48" si="18">SUM(P49:P51)</f>
+        <f>SUM(P49:P51)</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V48" s="16">
@@ -3029,27 +3108,27 @@
         <v>0</v>
       </c>
       <c r="W48" s="16">
-        <f t="shared" ref="W48" si="19">SUM(W49:W51)</f>
+        <f>SUM(W49:W51)</f>
         <v>0</v>
       </c>
       <c r="X48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC48" s="16">
@@ -3057,31 +3136,31 @@
         <v>0</v>
       </c>
       <c r="AD48" s="16">
-        <f t="shared" ref="AD48" si="20">SUM(AD49:AD51)</f>
+        <f>SUM(AD49:AD51)</f>
         <v>0</v>
       </c>
       <c r="AE48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI48" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ48" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3123,7 +3202,7 @@
       <c r="AH49" s="13"/>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3165,7 +3244,7 @@
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3207,7 +3286,7 @@
       <c r="AH51" s="13"/>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3226,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="16">
-        <f t="shared" ref="G52:AH52" si="21">SUM(G53:G56)</f>
+        <f t="shared" ref="G52:AH52" si="5">SUM(G53:G56)</f>
         <v>0</v>
       </c>
       <c r="H52" s="16">
@@ -3234,27 +3313,27 @@
         <v>0</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" ref="I52" si="22">SUM(I53:I55)</f>
+        <f>SUM(I53:I55)</f>
         <v>0</v>
       </c>
       <c r="J52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O52" s="16">
@@ -3262,27 +3341,27 @@
         <v>0</v>
       </c>
       <c r="P52" s="16">
-        <f t="shared" ref="P52" si="23">SUM(P53:P55)</f>
+        <f>SUM(P53:P55)</f>
         <v>0</v>
       </c>
       <c r="Q52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V52" s="16">
@@ -3290,27 +3369,27 @@
         <v>0</v>
       </c>
       <c r="W52" s="16">
-        <f t="shared" ref="W52" si="24">SUM(W53:W55)</f>
+        <f>SUM(W53:W55)</f>
         <v>0</v>
       </c>
       <c r="X52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC52" s="16">
@@ -3318,23 +3397,23 @@
         <v>0</v>
       </c>
       <c r="AD52" s="16">
-        <f t="shared" ref="AD52" si="25">SUM(AD53:AD55)</f>
+        <f>SUM(AD53:AD55)</f>
         <v>0</v>
       </c>
       <c r="AE52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI52" s="16">
@@ -3342,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -3386,7 +3465,7 @@
       <c r="AH53" s="13"/>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -3517,123 +3596,123 @@
         <v>8</v>
       </c>
       <c r="F57" s="14">
-        <f t="shared" ref="F57:AI57" si="26">SUM(F7,F41,F44,F48,F52,F38)</f>
+        <f t="shared" ref="F57:AI57" si="6">SUM(F7,F41,F44,F48,F52,F38)</f>
         <v>8</v>
       </c>
       <c r="G57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q57" s="14">
-        <f t="shared" si="26"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="R57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="S57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="T57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="U57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="V57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="Y57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="Z57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="AA57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="AB57" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="AC57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI57" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="12" t="s">

--- a/mt-tracker/April 2020/DanielleLouise.Leones-TimeTrackerDocument-April.xlsx
+++ b/mt-tracker/April 2020/DanielleLouise.Leones-TimeTrackerDocument-April.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB662BE-2C28-4299-ADA9-636900984EB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6305C6D6-66ED-4021-8304-6F07605EB4EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Resource Name:</t>
   </si>
@@ -136,6 +137,21 @@
   </si>
   <si>
     <t>Remodify code for Controller for Model And View</t>
+  </si>
+  <si>
+    <t>Fix Save button</t>
+  </si>
+  <si>
+    <t>Find a way to merge all html forms, entity, repository and service</t>
+  </si>
+  <si>
+    <t>Fix ajax for terminal_ID</t>
+  </si>
+  <si>
+    <t>Fix tabEdit.html page, merge all tabs in one html page</t>
+  </si>
+  <si>
+    <t>Fix tabEntity for parsing of values</t>
   </si>
 </sst>
 </file>
@@ -771,7 +787,7 @@
   <dimension ref="B1:AJ57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1021,19 +1037,19 @@
       </c>
       <c r="AE7" s="16">
         <f>SUM(AE8:AE37)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="16">
         <f>SUM(AF8:AF37)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG7" s="16">
         <f>SUM(AG8:AG37)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH7" s="16">
         <f>SUM(AH8:AH37)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI7" s="16">
         <f>SUM(AI8:AI37)</f>
@@ -1041,7 +1057,7 @@
       </c>
       <c r="AJ7" s="15">
         <f t="shared" ref="AJ7:AJ53" si="0">SUM(E7:AI7)</f>
-        <v>126</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:36" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1777,7 +1793,9 @@
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
+      <c r="B24" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
       <c r="E24" s="13"/>
@@ -1806,18 +1824,22 @@
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
+      <c r="AE24" s="13">
+        <v>5</v>
+      </c>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
+      <c r="B25" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="13"/>
@@ -1846,18 +1868,24 @@
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
+      <c r="AE25" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>3</v>
+      </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
+      <c r="B26" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
       <c r="E26" s="13"/>
@@ -1887,17 +1915,21 @@
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
+      <c r="AF26" s="13">
+        <v>5</v>
+      </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
+      <c r="B27" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
       <c r="E27" s="13"/>
@@ -1928,16 +1960,20 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
+      <c r="AG27" s="13">
+        <v>8</v>
+      </c>
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
+      <c r="B28" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="13"/>
@@ -1969,11 +2005,13 @@
       <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
+      <c r="AH28" s="13">
+        <v>8</v>
+      </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
@@ -3697,19 +3735,19 @@
       </c>
       <c r="AE57" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF57" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG57" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH57" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI57" s="14">
         <f t="shared" si="6"/>
